--- a/data/pca/factorExposure/factorExposure_2009-03-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-03-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01729193486070859</v>
+        <v>-0.01669249676496216</v>
       </c>
       <c r="C2">
-        <v>0.002160623440986949</v>
+        <v>0.001563670684918814</v>
       </c>
       <c r="D2">
-        <v>0.006884034885198071</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0083967544567221</v>
+      </c>
+      <c r="E2">
+        <v>-0.01856741496682907</v>
+      </c>
+      <c r="F2">
+        <v>0.007076339229593316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08346303213858147</v>
+        <v>-0.0866470046337648</v>
       </c>
       <c r="C4">
-        <v>0.02008600057975872</v>
+        <v>0.01597471565160526</v>
       </c>
       <c r="D4">
-        <v>0.08493056088887666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08831113253706012</v>
+      </c>
+      <c r="E4">
+        <v>0.05000032649561398</v>
+      </c>
+      <c r="F4">
+        <v>-0.01566880055817324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.001153766870296631</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0001744276868836315</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-0.00119204425387996</v>
+      </c>
+      <c r="E5">
+        <v>0.001641894282809203</v>
+      </c>
+      <c r="F5">
+        <v>0.002919535691659745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1627199784199674</v>
+        <v>-0.1676901786945216</v>
       </c>
       <c r="C6">
-        <v>0.03915579131381012</v>
+        <v>0.03662545870906343</v>
       </c>
       <c r="D6">
-        <v>-0.02110327795562549</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01073221772148374</v>
+      </c>
+      <c r="E6">
+        <v>0.0596196204778523</v>
+      </c>
+      <c r="F6">
+        <v>-0.0125837773322085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05501266727821664</v>
+        <v>-0.05953024387036115</v>
       </c>
       <c r="C7">
-        <v>0.001712995439744448</v>
+        <v>-0.001123621849480035</v>
       </c>
       <c r="D7">
-        <v>0.05093952655455048</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05499327144093345</v>
+      </c>
+      <c r="E7">
+        <v>0.02924701645968724</v>
+      </c>
+      <c r="F7">
+        <v>-0.05477465305811012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05833132334320544</v>
+        <v>-0.05473967211918585</v>
       </c>
       <c r="C8">
-        <v>-0.009164908662997845</v>
+        <v>-0.01081125100741753</v>
       </c>
       <c r="D8">
-        <v>0.03611936014066819</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03756501418905012</v>
+      </c>
+      <c r="E8">
+        <v>-0.02213932618100312</v>
+      </c>
+      <c r="F8">
+        <v>0.0221138540663769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06374240463447982</v>
+        <v>-0.06745316320878089</v>
       </c>
       <c r="C9">
-        <v>0.01539818352033082</v>
+        <v>0.01136562000105246</v>
       </c>
       <c r="D9">
-        <v>0.08751686479946183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.09152028360695469</v>
+      </c>
+      <c r="E9">
+        <v>0.06625919304760085</v>
+      </c>
+      <c r="F9">
+        <v>-0.02221558522791897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.09783986167677004</v>
+        <v>-0.09355783993446562</v>
       </c>
       <c r="C10">
-        <v>0.02512956492864415</v>
+        <v>0.02616323588974728</v>
       </c>
       <c r="D10">
-        <v>-0.1605108983914801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1526627784181964</v>
+      </c>
+      <c r="E10">
+        <v>-0.08945061131822736</v>
+      </c>
+      <c r="F10">
+        <v>0.01207411445646978</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08535206831638967</v>
+        <v>-0.08327340437034723</v>
       </c>
       <c r="C11">
-        <v>0.01759704753520466</v>
+        <v>0.01254486571194595</v>
       </c>
       <c r="D11">
-        <v>0.137302991818508</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1372537916521974</v>
+      </c>
+      <c r="E11">
+        <v>0.03567910664937025</v>
+      </c>
+      <c r="F11">
+        <v>0.007867523600677955</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.08961948213813063</v>
+        <v>-0.08556456365485401</v>
       </c>
       <c r="C12">
-        <v>0.01530752121111312</v>
+        <v>0.009679634131239222</v>
       </c>
       <c r="D12">
-        <v>0.1462517287714254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1513902071065552</v>
+      </c>
+      <c r="E12">
+        <v>0.03382583676206487</v>
+      </c>
+      <c r="F12">
+        <v>-0.004460989636124748</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04228801893405278</v>
+        <v>-0.04260616124074783</v>
       </c>
       <c r="C13">
-        <v>0.007748360943398218</v>
+        <v>0.003808923645725974</v>
       </c>
       <c r="D13">
-        <v>0.05345526434120439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06055258709363642</v>
+      </c>
+      <c r="E13">
+        <v>0.003513085501698181</v>
+      </c>
+      <c r="F13">
+        <v>-0.0156803399413219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01989924253771889</v>
+        <v>-0.02239678965691901</v>
       </c>
       <c r="C14">
-        <v>0.01515339469757986</v>
+        <v>0.01403701643483585</v>
       </c>
       <c r="D14">
-        <v>0.04048383011885116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0423577237004391</v>
+      </c>
+      <c r="E14">
+        <v>0.02827019927819005</v>
+      </c>
+      <c r="F14">
+        <v>-0.001944274511677119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03161691117268435</v>
+        <v>-0.03349244626766801</v>
       </c>
       <c r="C15">
-        <v>0.008195914884295646</v>
+        <v>0.006573217719382242</v>
       </c>
       <c r="D15">
-        <v>0.05463191737945186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.05398902045688943</v>
+      </c>
+      <c r="E15">
+        <v>0.02475056403757212</v>
+      </c>
+      <c r="F15">
+        <v>-0.01360978804951121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.0658397938107068</v>
+        <v>-0.06593145184443837</v>
       </c>
       <c r="C16">
-        <v>0.006054757721915611</v>
+        <v>0.001130821869317672</v>
       </c>
       <c r="D16">
-        <v>0.1407833030085015</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.144731187909256</v>
+      </c>
+      <c r="E16">
+        <v>0.04507690982952006</v>
+      </c>
+      <c r="F16">
+        <v>0.01428121690534092</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.002876991498963267</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.001206284619597001</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.002916253735638172</v>
+      </c>
+      <c r="E17">
+        <v>0.0004672404316051774</v>
+      </c>
+      <c r="F17">
+        <v>0.007457466745947135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.03234322848355061</v>
+        <v>-0.04758710987800582</v>
       </c>
       <c r="C18">
-        <v>0.0003507604613797868</v>
+        <v>0.0007105094458703115</v>
       </c>
       <c r="D18">
-        <v>0.03094979794920762</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.02818213693593189</v>
+      </c>
+      <c r="E18">
+        <v>-0.01982289126486842</v>
+      </c>
+      <c r="F18">
+        <v>-0.003388715594047188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06141726572614661</v>
+        <v>-0.06124215636490952</v>
       </c>
       <c r="C20">
-        <v>0.005328380774854685</v>
+        <v>0.002484863273365703</v>
       </c>
       <c r="D20">
-        <v>0.09596093701534091</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09562985749828039</v>
+      </c>
+      <c r="E20">
+        <v>0.06168676519446384</v>
+      </c>
+      <c r="F20">
+        <v>0.006900124060967693</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04176421432517827</v>
+        <v>-0.04365691702863418</v>
       </c>
       <c r="C21">
-        <v>0.01096838967649178</v>
+        <v>0.008373738967609849</v>
       </c>
       <c r="D21">
-        <v>0.04822272464318459</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.0483967298042906</v>
+      </c>
+      <c r="E21">
+        <v>-0.01880201016269167</v>
+      </c>
+      <c r="F21">
+        <v>-0.00604897501165085</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04613649468949124</v>
+        <v>-0.04459640601997512</v>
       </c>
       <c r="C22">
-        <v>0.005293516754445739</v>
+        <v>0.002847275713287305</v>
       </c>
       <c r="D22">
-        <v>0.01159348295142268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.01670566618042074</v>
+      </c>
+      <c r="E22">
+        <v>-0.03824766418989139</v>
+      </c>
+      <c r="F22">
+        <v>0.1266857851866179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04614547506780982</v>
+        <v>-0.04460407997075407</v>
       </c>
       <c r="C23">
-        <v>0.005296092006068385</v>
+        <v>0.002849621025993013</v>
       </c>
       <c r="D23">
-        <v>0.01158600565675838</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.01669964246218351</v>
+      </c>
+      <c r="E23">
+        <v>-0.03826923545284405</v>
+      </c>
+      <c r="F23">
+        <v>0.1267262904725529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07271335718822657</v>
+        <v>-0.07181620563556616</v>
       </c>
       <c r="C24">
-        <v>0.00665936674820349</v>
+        <v>0.002173205691123685</v>
       </c>
       <c r="D24">
-        <v>0.1357080621189182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.135300107792387</v>
+      </c>
+      <c r="E24">
+        <v>0.0389456724315894</v>
+      </c>
+      <c r="F24">
+        <v>-0.004111714516281527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.0791402810779626</v>
+        <v>-0.07712437159789746</v>
       </c>
       <c r="C25">
-        <v>0.009698975675070458</v>
+        <v>0.005274327539728482</v>
       </c>
       <c r="D25">
-        <v>0.1278455641516955</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1264134571741461</v>
+      </c>
+      <c r="E25">
+        <v>0.0234517980117724</v>
+      </c>
+      <c r="F25">
+        <v>-0.01908118461052481</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05785854907968051</v>
+        <v>-0.06182651986467678</v>
       </c>
       <c r="C26">
-        <v>0.01921712374421601</v>
+        <v>0.01635982239166095</v>
       </c>
       <c r="D26">
-        <v>0.06568275434273434</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06707621677156336</v>
+      </c>
+      <c r="E26">
+        <v>0.003386819976487411</v>
+      </c>
+      <c r="F26">
+        <v>0.009602010133872253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1570603540536008</v>
+        <v>-0.1608788832822745</v>
       </c>
       <c r="C28">
-        <v>0.03093117106196337</v>
+        <v>0.03359240991470884</v>
       </c>
       <c r="D28">
-        <v>-0.2451311917448903</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2437895125954739</v>
+      </c>
+      <c r="E28">
+        <v>-0.02500776796753812</v>
+      </c>
+      <c r="F28">
+        <v>-0.04308970867441653</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02607814573434412</v>
+        <v>-0.02795031725333012</v>
       </c>
       <c r="C29">
-        <v>0.01010892255278071</v>
+        <v>0.009479353787947264</v>
       </c>
       <c r="D29">
-        <v>0.03959235249025365</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03939534633601904</v>
+      </c>
+      <c r="E29">
+        <v>-0.005585626910207375</v>
+      </c>
+      <c r="F29">
+        <v>0.02318046093854132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.04590159571201879</v>
+        <v>-0.04653584604696313</v>
       </c>
       <c r="C30">
-        <v>0.004791584834105024</v>
+        <v>0.001455136313404261</v>
       </c>
       <c r="D30">
-        <v>0.07848439367626306</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08187695965566394</v>
+      </c>
+      <c r="E30">
+        <v>0.08457978211656893</v>
+      </c>
+      <c r="F30">
+        <v>-0.06902222560073623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05232123951529472</v>
+        <v>-0.052321162015671</v>
       </c>
       <c r="C31">
-        <v>0.01984721629230129</v>
+        <v>0.01752802143628582</v>
       </c>
       <c r="D31">
-        <v>0.03161645840836776</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03478005067821464</v>
+      </c>
+      <c r="E31">
+        <v>0.01009209620583389</v>
+      </c>
+      <c r="F31">
+        <v>0.03009243755062393</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04437709634171773</v>
+        <v>-0.04928711841764571</v>
       </c>
       <c r="C32">
-        <v>0.001500086244639823</v>
+        <v>-0.001179178027122941</v>
       </c>
       <c r="D32">
-        <v>0.03801911177673888</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03958175420594796</v>
+      </c>
+      <c r="E32">
+        <v>0.01319883614086535</v>
+      </c>
+      <c r="F32">
+        <v>0.02143575994246608</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08352967582908476</v>
+        <v>-0.08609145752541741</v>
       </c>
       <c r="C33">
-        <v>0.01370673667598656</v>
+        <v>0.00852038589071847</v>
       </c>
       <c r="D33">
-        <v>0.1071190970501803</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1143047450617677</v>
+      </c>
+      <c r="E33">
+        <v>0.04518149771443985</v>
+      </c>
+      <c r="F33">
+        <v>0.01204200210304978</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06058382756675783</v>
+        <v>-0.060834470629401</v>
       </c>
       <c r="C34">
-        <v>0.01481818184689983</v>
+        <v>0.01011682091694074</v>
       </c>
       <c r="D34">
-        <v>0.1167566722536458</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1221998410093381</v>
+      </c>
+      <c r="E34">
+        <v>0.03768992713764049</v>
+      </c>
+      <c r="F34">
+        <v>-0.0248379506665951</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02738985246593278</v>
+        <v>-0.02810625944623288</v>
       </c>
       <c r="C35">
-        <v>0.005342606661741253</v>
+        <v>0.004542107457582151</v>
       </c>
       <c r="D35">
-        <v>0.0135268078772768</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01541168298211291</v>
+      </c>
+      <c r="E35">
+        <v>0.0107210638346537</v>
+      </c>
+      <c r="F35">
+        <v>0.01848946783618065</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.0237916119304157</v>
+        <v>-0.02782469342409885</v>
       </c>
       <c r="C36">
-        <v>0.009124006233278697</v>
+        <v>0.007988488316220673</v>
       </c>
       <c r="D36">
-        <v>0.0462986841177592</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04901247652782724</v>
+      </c>
+      <c r="E36">
+        <v>0.03805635201120731</v>
+      </c>
+      <c r="F36">
+        <v>0.01091164765627697</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.00339141144361806</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0008074779032820526</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.003766620369486213</v>
+      </c>
+      <c r="E37">
+        <v>-0.001714915229434969</v>
+      </c>
+      <c r="F37">
+        <v>6.427737425233718e-05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09400912198112063</v>
+        <v>-0.087406421505791</v>
       </c>
       <c r="C39">
-        <v>0.02052631801304691</v>
+        <v>0.01485710448174712</v>
       </c>
       <c r="D39">
-        <v>0.1683927013948143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1626122534382501</v>
+      </c>
+      <c r="E39">
+        <v>0.02730678426024593</v>
+      </c>
+      <c r="F39">
+        <v>0.01410375839758073</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04432296620607181</v>
+        <v>-0.04945011921426495</v>
       </c>
       <c r="C40">
-        <v>0.01256892090074489</v>
+        <v>0.01075499100107789</v>
       </c>
       <c r="D40">
-        <v>0.04621780372059562</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.04929085430322379</v>
+      </c>
+      <c r="E40">
+        <v>-0.01965265754552549</v>
+      </c>
+      <c r="F40">
+        <v>-0.0002492568901788729</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02725469661327126</v>
+        <v>-0.02908853927407028</v>
       </c>
       <c r="C41">
-        <v>0.008697965788600687</v>
+        <v>0.008052606212940242</v>
       </c>
       <c r="D41">
-        <v>0.02108909389984723</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.02161028662994788</v>
+      </c>
+      <c r="E41">
+        <v>-0.007715606449649549</v>
+      </c>
+      <c r="F41">
+        <v>0.005004746215447941</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04197782490531971</v>
+        <v>-0.04082314540239131</v>
       </c>
       <c r="C43">
-        <v>0.009767904426106359</v>
+        <v>0.008677344199319875</v>
       </c>
       <c r="D43">
-        <v>0.0318158898464127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03135698716467603</v>
+      </c>
+      <c r="E43">
+        <v>-0.006845279179893798</v>
+      </c>
+      <c r="F43">
+        <v>0.02403850921121731</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.05723062849761876</v>
+        <v>-0.06580740201065537</v>
       </c>
       <c r="C44">
-        <v>0.02130118359584328</v>
+        <v>0.01843392678455166</v>
       </c>
       <c r="D44">
-        <v>0.08366799538607768</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09036525818266927</v>
+      </c>
+      <c r="E44">
+        <v>0.2232292057791594</v>
+      </c>
+      <c r="F44">
+        <v>-0.07704340960282866</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0002432574407890429</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>2.876194102526431e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>3.454009619630216e-05</v>
+      </c>
+      <c r="E45">
+        <v>-0.0005608363417078984</v>
+      </c>
+      <c r="F45">
+        <v>-0.0002647620043549242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02479472928529359</v>
+        <v>-0.02620201873658577</v>
       </c>
       <c r="C46">
-        <v>0.005384588270362282</v>
+        <v>0.004464263343097618</v>
       </c>
       <c r="D46">
-        <v>0.02591096648490958</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.026410084337997</v>
+      </c>
+      <c r="E46">
+        <v>-0.003137709844186271</v>
+      </c>
+      <c r="F46">
+        <v>0.03242159636598249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05347112069859436</v>
+        <v>-0.05256565935837264</v>
       </c>
       <c r="C47">
-        <v>0.007504685595613005</v>
+        <v>0.005724511790564327</v>
       </c>
       <c r="D47">
-        <v>0.02107621195480559</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02221114859455248</v>
+      </c>
+      <c r="E47">
+        <v>-0.01194185210973644</v>
+      </c>
+      <c r="F47">
+        <v>0.0531438592014144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04864237770288619</v>
+        <v>-0.05222673356301414</v>
       </c>
       <c r="C48">
-        <v>0.006532036959757035</v>
+        <v>0.004090184407978085</v>
       </c>
       <c r="D48">
-        <v>0.06586266650853337</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.06367933174857512</v>
+      </c>
+      <c r="E48">
+        <v>0.004275541903306279</v>
+      </c>
+      <c r="F48">
+        <v>-0.02222232819552306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1952583676340519</v>
+        <v>-0.1978027487591628</v>
       </c>
       <c r="C49">
-        <v>0.03037283411501985</v>
+        <v>0.02614569514770369</v>
       </c>
       <c r="D49">
-        <v>-0.0052585715238818</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.001217271637692411</v>
+      </c>
+      <c r="E49">
+        <v>0.04740547372113484</v>
+      </c>
+      <c r="F49">
+        <v>-0.04311041930786912</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.0498078891066531</v>
+        <v>-0.05224552016333315</v>
       </c>
       <c r="C50">
-        <v>0.01510313908316172</v>
+        <v>0.01345161480348459</v>
       </c>
       <c r="D50">
-        <v>0.03024848724334558</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03223494122997422</v>
+      </c>
+      <c r="E50">
+        <v>0.0205332677823104</v>
+      </c>
+      <c r="F50">
+        <v>0.01681744488813511</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1472207710035291</v>
+        <v>-0.1412878470374526</v>
       </c>
       <c r="C52">
-        <v>0.02584761826291652</v>
+        <v>0.02183771634155944</v>
       </c>
       <c r="D52">
-        <v>0.03997805015092625</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04273316696168446</v>
+      </c>
+      <c r="E52">
+        <v>0.05741987289263291</v>
+      </c>
+      <c r="F52">
+        <v>0.01658753705058571</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1769196870536529</v>
+        <v>-0.1688465634997308</v>
       </c>
       <c r="C53">
-        <v>0.03108323287402719</v>
+        <v>0.02749727266031331</v>
       </c>
       <c r="D53">
-        <v>0.01059447207755317</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01416735445186554</v>
+      </c>
+      <c r="E53">
+        <v>0.1141608247429679</v>
+      </c>
+      <c r="F53">
+        <v>0.001321200987250081</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01389008215272914</v>
+        <v>-0.01692024555974921</v>
       </c>
       <c r="C54">
-        <v>0.01177786292242577</v>
+        <v>0.01107692664668466</v>
       </c>
       <c r="D54">
-        <v>0.03504868993410103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03346053437124737</v>
+      </c>
+      <c r="E54">
+        <v>0.006347131721229872</v>
+      </c>
+      <c r="F54">
+        <v>0.01682587441091367</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1202380663478481</v>
+        <v>-0.1177804234413322</v>
       </c>
       <c r="C55">
-        <v>0.02635373041216391</v>
+        <v>0.02344565222538773</v>
       </c>
       <c r="D55">
-        <v>0.010349687887075</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01851727622186102</v>
+      </c>
+      <c r="E55">
+        <v>0.06798303195705684</v>
+      </c>
+      <c r="F55">
+        <v>0.03873883086626532</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1808529622631509</v>
+        <v>-0.1748491674610408</v>
       </c>
       <c r="C56">
-        <v>0.02868447272910349</v>
+        <v>0.02550352714658072</v>
       </c>
       <c r="D56">
-        <v>-0.0003202316037509251</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.002880853230821203</v>
+      </c>
+      <c r="E56">
+        <v>0.07346770928430837</v>
+      </c>
+      <c r="F56">
+        <v>0.02731221131628762</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04535928163784029</v>
+        <v>-0.04568625942234496</v>
       </c>
       <c r="C58">
-        <v>0.004651564364296481</v>
+        <v>0.0005202352202721667</v>
       </c>
       <c r="D58">
-        <v>0.09294345971641539</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.09770161712918476</v>
+      </c>
+      <c r="E58">
+        <v>-0.01557333352699482</v>
+      </c>
+      <c r="F58">
+        <v>0.03822163225849626</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1746075512480765</v>
+        <v>-0.1792114623915003</v>
       </c>
       <c r="C59">
-        <v>0.03008936682737457</v>
+        <v>0.03223999751183383</v>
       </c>
       <c r="D59">
-        <v>-0.2068425387301874</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2058315875947148</v>
+      </c>
+      <c r="E59">
+        <v>-0.07629629966568774</v>
+      </c>
+      <c r="F59">
+        <v>0.01135290638897335</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2215714408816044</v>
+        <v>-0.2169750318990288</v>
       </c>
       <c r="C60">
-        <v>0.009480945190778906</v>
+        <v>0.004851312392115097</v>
       </c>
       <c r="D60">
-        <v>0.0210359675345337</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0228634582125363</v>
+      </c>
+      <c r="E60">
+        <v>-0.005329911134110079</v>
+      </c>
+      <c r="F60">
+        <v>-0.005285514399094269</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.07194844620589951</v>
+        <v>-0.06837079880816725</v>
       </c>
       <c r="C61">
-        <v>0.01587467431961113</v>
+        <v>0.01096179923450126</v>
       </c>
       <c r="D61">
-        <v>0.1253184636786319</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1241973411052345</v>
+      </c>
+      <c r="E61">
+        <v>0.0134476092707284</v>
+      </c>
+      <c r="F61">
+        <v>0.01912107961015489</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1698005713997918</v>
+        <v>-0.1662803214405754</v>
       </c>
       <c r="C62">
-        <v>0.03075581700464271</v>
+        <v>0.02735475491393755</v>
       </c>
       <c r="D62">
-        <v>0.007102677687667009</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.01176467067175455</v>
+      </c>
+      <c r="E62">
+        <v>0.06834714171313744</v>
+      </c>
+      <c r="F62">
+        <v>0.03745760638428502</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.0414858631597551</v>
+        <v>-0.04663428081718136</v>
       </c>
       <c r="C63">
-        <v>0.005924254724205101</v>
+        <v>0.003608728660876</v>
       </c>
       <c r="D63">
-        <v>0.07221645286926472</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07548416869408527</v>
+      </c>
+      <c r="E63">
+        <v>0.0126213530946994</v>
+      </c>
+      <c r="F63">
+        <v>0.02328784411152526</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1140475807197225</v>
+        <v>-0.1114604030050429</v>
       </c>
       <c r="C64">
-        <v>0.02069877701030375</v>
+        <v>0.01678082226825121</v>
       </c>
       <c r="D64">
-        <v>0.0552963664361215</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05911597857175051</v>
+      </c>
+      <c r="E64">
+        <v>0.03260590890177267</v>
+      </c>
+      <c r="F64">
+        <v>-0.002073660042895974</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1518922907764011</v>
+        <v>-0.156694303765147</v>
       </c>
       <c r="C65">
-        <v>0.04494965853945911</v>
+        <v>0.04307036005616025</v>
       </c>
       <c r="D65">
-        <v>-0.04931429236385349</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.03821033180136714</v>
+      </c>
+      <c r="E65">
+        <v>0.06665691595351331</v>
+      </c>
+      <c r="F65">
+        <v>0.001185535305711688</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1146480660641435</v>
+        <v>-0.1064241651112323</v>
       </c>
       <c r="C66">
-        <v>0.01930560102466433</v>
+        <v>0.01298776600314227</v>
       </c>
       <c r="D66">
-        <v>0.1528708745819364</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1508595892373676</v>
+      </c>
+      <c r="E66">
+        <v>0.03115089898614126</v>
+      </c>
+      <c r="F66">
+        <v>0.01420848450703777</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05965949987248972</v>
+        <v>-0.0509607625447279</v>
       </c>
       <c r="C67">
-        <v>0.006439298640871328</v>
+        <v>0.003779562656237287</v>
       </c>
       <c r="D67">
-        <v>0.06237221894743218</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05886613208023691</v>
+      </c>
+      <c r="E67">
+        <v>-0.04819802020791293</v>
+      </c>
+      <c r="F67">
+        <v>0.07099453216867153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.126415585435751</v>
+        <v>-0.1313521903738187</v>
       </c>
       <c r="C68">
-        <v>0.03833658101000602</v>
+        <v>0.04244574425113707</v>
       </c>
       <c r="D68">
-        <v>-0.2564773484311662</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2542068704297533</v>
+      </c>
+      <c r="E68">
+        <v>-0.0372993172923391</v>
+      </c>
+      <c r="F68">
+        <v>-0.0731584041465607</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03904648007797775</v>
+        <v>-0.03874431791801515</v>
       </c>
       <c r="C69">
-        <v>0.003541569737099086</v>
+        <v>0.002485060869050928</v>
       </c>
       <c r="D69">
-        <v>0.01019506131486243</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0113648872813304</v>
+      </c>
+      <c r="E69">
+        <v>0.01644168484273132</v>
+      </c>
+      <c r="F69">
+        <v>0.0507051044739503</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.07116437809960838</v>
+        <v>-0.07230023622190743</v>
       </c>
       <c r="C70">
-        <v>-0.02161480394714579</v>
+        <v>-0.02333613216954835</v>
       </c>
       <c r="D70">
-        <v>0.05092832658989291</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.04634599729838961</v>
+      </c>
+      <c r="E70">
+        <v>-0.3303558152937536</v>
+      </c>
+      <c r="F70">
+        <v>0.1713317961050037</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1467347928352096</v>
+        <v>-0.1528263334899594</v>
       </c>
       <c r="C71">
-        <v>0.0446189545025031</v>
+        <v>0.04829405442722053</v>
       </c>
       <c r="D71">
-        <v>-0.2670031711145509</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2619640715073678</v>
+      </c>
+      <c r="E71">
+        <v>-0.04399129596824942</v>
+      </c>
+      <c r="F71">
+        <v>-0.08390221472711878</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.139247497098152</v>
+        <v>-0.1457404245038949</v>
       </c>
       <c r="C72">
-        <v>0.03473619988533709</v>
+        <v>0.03312976594161812</v>
       </c>
       <c r="D72">
-        <v>0.01201360472935945</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01005141309682999</v>
+      </c>
+      <c r="E72">
+        <v>0.06359172427219048</v>
+      </c>
+      <c r="F72">
+        <v>0.02823391894850681</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.1925976079257798</v>
+        <v>-0.1986371936269087</v>
       </c>
       <c r="C73">
-        <v>0.02288754972649511</v>
+        <v>0.01747047061713001</v>
       </c>
       <c r="D73">
-        <v>0.01755191595475611</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02374390856913573</v>
+      </c>
+      <c r="E73">
+        <v>0.06660476201916943</v>
+      </c>
+      <c r="F73">
+        <v>0.0495378300981652</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.0892437164475096</v>
+        <v>-0.08898863631430577</v>
       </c>
       <c r="C74">
-        <v>0.01762717236282283</v>
+        <v>0.01540451137525524</v>
       </c>
       <c r="D74">
-        <v>0.02018973179820364</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02505455195066425</v>
+      </c>
+      <c r="E74">
+        <v>0.07998307895152723</v>
+      </c>
+      <c r="F74">
+        <v>0.01375624383079004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1275827944727427</v>
+        <v>-0.1204452089713772</v>
       </c>
       <c r="C75">
-        <v>0.03577130293407256</v>
+        <v>0.03198236229434466</v>
       </c>
       <c r="D75">
-        <v>0.03280033979610624</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.0360241875384739</v>
+      </c>
+      <c r="E75">
+        <v>0.06449805233533699</v>
+      </c>
+      <c r="F75">
+        <v>0.06025095947180882</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07597274548864745</v>
+        <v>-0.09000847544041632</v>
       </c>
       <c r="C77">
-        <v>0.01481798805764474</v>
+        <v>0.01164855419030749</v>
       </c>
       <c r="D77">
-        <v>0.1231584285895656</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1216493380730555</v>
+      </c>
+      <c r="E77">
+        <v>0.04881594754981366</v>
+      </c>
+      <c r="F77">
+        <v>-0.02119529109668665</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09728957123587319</v>
+        <v>-0.09976982670722337</v>
       </c>
       <c r="C78">
-        <v>0.04434009849278182</v>
+        <v>0.04097116280151598</v>
       </c>
       <c r="D78">
-        <v>0.1523835213935879</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1426882592191226</v>
+      </c>
+      <c r="E78">
+        <v>0.0529163649797967</v>
+      </c>
+      <c r="F78">
+        <v>-0.03490537293298076</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1683891993637781</v>
+        <v>-0.1640422042951607</v>
       </c>
       <c r="C79">
-        <v>0.0341311685153951</v>
+        <v>0.03014417106740368</v>
       </c>
       <c r="D79">
-        <v>0.0217202014128663</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02520242687964765</v>
+      </c>
+      <c r="E79">
+        <v>0.03893618255660722</v>
+      </c>
+      <c r="F79">
+        <v>0.03673757275458162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07981161943812333</v>
+        <v>-0.07657641895919769</v>
       </c>
       <c r="C80">
-        <v>0.004987206332206187</v>
+        <v>0.002168267768757375</v>
       </c>
       <c r="D80">
-        <v>0.05494527770540748</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05364941219552794</v>
+      </c>
+      <c r="E80">
+        <v>-0.01853128490932564</v>
+      </c>
+      <c r="F80">
+        <v>0.0509949210257901</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.114617918881328</v>
+        <v>-0.1089381031146868</v>
       </c>
       <c r="C81">
-        <v>0.03687151808179765</v>
+        <v>0.03481875782974328</v>
       </c>
       <c r="D81">
-        <v>0.003863414296704215</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.009068627294627282</v>
+      </c>
+      <c r="E81">
+        <v>0.05055825318938845</v>
+      </c>
+      <c r="F81">
+        <v>0.06049350928493199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1608894180487242</v>
+        <v>-0.1592575296283961</v>
       </c>
       <c r="C82">
-        <v>0.03380906697928854</v>
+        <v>0.0305012822018339</v>
       </c>
       <c r="D82">
-        <v>-0.004717455863251197</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.0008992710625201955</v>
+      </c>
+      <c r="E82">
+        <v>0.1012645761692362</v>
+      </c>
+      <c r="F82">
+        <v>-0.001393976827114754</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05589169221146215</v>
+        <v>-0.0517670167226164</v>
       </c>
       <c r="C83">
-        <v>0.006630204004080086</v>
+        <v>0.004313175903891258</v>
       </c>
       <c r="D83">
-        <v>0.0502950637647349</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04794844664061679</v>
+      </c>
+      <c r="E83">
+        <v>-0.02356105090492938</v>
+      </c>
+      <c r="F83">
+        <v>0.01030486808600744</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05395225629651652</v>
+        <v>-0.05083504744815882</v>
       </c>
       <c r="C84">
-        <v>0.01391176626147106</v>
+        <v>0.01123128767418143</v>
       </c>
       <c r="D84">
-        <v>0.07803117083859014</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07496493683053103</v>
+      </c>
+      <c r="E84">
+        <v>0.007151530854715046</v>
+      </c>
+      <c r="F84">
+        <v>0.005344289077423029</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1390929210308895</v>
+        <v>-0.1339811881542767</v>
       </c>
       <c r="C85">
-        <v>0.03714943066408533</v>
+        <v>0.03396191650215952</v>
       </c>
       <c r="D85">
-        <v>0.01382249210197068</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.0175528751601675</v>
+      </c>
+      <c r="E85">
+        <v>0.08212904919505953</v>
+      </c>
+      <c r="F85">
+        <v>0.01458348821118105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08555496794565508</v>
+        <v>-0.08205246045040536</v>
       </c>
       <c r="C86">
-        <v>-0.002138281401678761</v>
+        <v>-0.006430637949888957</v>
       </c>
       <c r="D86">
-        <v>0.07241381775354859</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07896584084178757</v>
+      </c>
+      <c r="E86">
+        <v>-0.5438957088224458</v>
+      </c>
+      <c r="F86">
+        <v>0.6047834675595767</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.08902421311994335</v>
+        <v>-0.08890964477613016</v>
       </c>
       <c r="C87">
-        <v>0.02894140026249283</v>
+        <v>0.02426036786218346</v>
       </c>
       <c r="D87">
-        <v>0.08601059152373161</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0859740398894587</v>
+      </c>
+      <c r="E87">
+        <v>0.002198163153090156</v>
+      </c>
+      <c r="F87">
+        <v>-0.1090277567611487</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06279234381032738</v>
+        <v>-0.06171056961706691</v>
       </c>
       <c r="C88">
-        <v>0.0074547740324477</v>
+        <v>0.004908470831595031</v>
       </c>
       <c r="D88">
-        <v>0.06420289576080573</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.06290391510926542</v>
+      </c>
+      <c r="E88">
+        <v>0.0148049849718098</v>
+      </c>
+      <c r="F88">
+        <v>0.01062265879253963</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1332402464501755</v>
+        <v>-0.1379169949127409</v>
       </c>
       <c r="C89">
-        <v>0.01791397022561355</v>
+        <v>0.02219448081595179</v>
       </c>
       <c r="D89">
-        <v>-0.2272548593239237</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2332428502831287</v>
+      </c>
+      <c r="E89">
+        <v>-0.04507117090239534</v>
+      </c>
+      <c r="F89">
+        <v>-0.08027134915634943</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1583173739928934</v>
+        <v>-0.1676606965365982</v>
       </c>
       <c r="C90">
-        <v>0.04097853352614735</v>
+        <v>0.04536359369160762</v>
       </c>
       <c r="D90">
-        <v>-0.2557035238229082</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2582963855930046</v>
+      </c>
+      <c r="E90">
+        <v>-0.07271346499491887</v>
+      </c>
+      <c r="F90">
+        <v>-0.1132708224336889</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1266308118326855</v>
+        <v>-0.1213730684915789</v>
       </c>
       <c r="C91">
-        <v>0.02807624905042854</v>
+        <v>0.02592318221764173</v>
       </c>
       <c r="D91">
-        <v>-0.01181386063976793</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.008332871014969158</v>
+      </c>
+      <c r="E91">
+        <v>0.03942299430932153</v>
+      </c>
+      <c r="F91">
+        <v>0.09235777766482069</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1562787111688184</v>
+        <v>-0.1590090502725616</v>
       </c>
       <c r="C92">
-        <v>0.03149884654015334</v>
+        <v>0.03556205247855138</v>
       </c>
       <c r="D92">
-        <v>-0.2853233327924322</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.290166286532502</v>
+      </c>
+      <c r="E92">
+        <v>-0.05498674428957825</v>
+      </c>
+      <c r="F92">
+        <v>-0.0694053598740843</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1624062025154496</v>
+        <v>-0.1707235949914785</v>
       </c>
       <c r="C93">
-        <v>0.03718853212668553</v>
+        <v>0.0404002991974004</v>
       </c>
       <c r="D93">
-        <v>-0.2452134574818791</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2491501197162219</v>
+      </c>
+      <c r="E93">
+        <v>-0.02976493874760483</v>
+      </c>
+      <c r="F93">
+        <v>-0.05513076160939511</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1248050466491348</v>
+        <v>-0.1185970802510121</v>
       </c>
       <c r="C94">
-        <v>0.03094487567601755</v>
+        <v>0.02696566701981258</v>
       </c>
       <c r="D94">
-        <v>0.04641751855263468</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0486431717141394</v>
+      </c>
+      <c r="E94">
+        <v>0.06271807115863016</v>
+      </c>
+      <c r="F94">
+        <v>0.05954604135810895</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1258095338905946</v>
+        <v>-0.128410070058062</v>
       </c>
       <c r="C95">
-        <v>0.01394774546615297</v>
+        <v>0.008374348918923712</v>
       </c>
       <c r="D95">
-        <v>0.1106250957823101</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1183847490257404</v>
+      </c>
+      <c r="E95">
+        <v>0.01534199918068655</v>
+      </c>
+      <c r="F95">
+        <v>0.03721954853788863</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1728077929183381</v>
+        <v>-0.1543737246819987</v>
       </c>
       <c r="C96">
-        <v>-0.9792930793427598</v>
+        <v>-0.9814322524921418</v>
       </c>
       <c r="D96">
-        <v>-0.03110929823223203</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05233345482699449</v>
+      </c>
+      <c r="E96">
+        <v>0.06405632362341866</v>
+      </c>
+      <c r="F96">
+        <v>0.009623547231485499</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.192435960719232</v>
+        <v>-0.1953254706411446</v>
       </c>
       <c r="C97">
-        <v>0.00666209681800363</v>
+        <v>0.002033789338115162</v>
       </c>
       <c r="D97">
-        <v>-0.01863194934827385</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01505510687982524</v>
+      </c>
+      <c r="E97">
+        <v>-0.1318032269183106</v>
+      </c>
+      <c r="F97">
+        <v>0.1108214314145872</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1894365020708249</v>
+        <v>-0.1966448408865483</v>
       </c>
       <c r="C98">
-        <v>0.01822365599120675</v>
+        <v>0.0130997503524079</v>
       </c>
       <c r="D98">
-        <v>-0.003387851298988411</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.001486769335595199</v>
+      </c>
+      <c r="E98">
+        <v>-0.133528306536567</v>
+      </c>
+      <c r="F98">
+        <v>-0.05624748364016545</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05567450300250797</v>
+        <v>-0.05575608541490745</v>
       </c>
       <c r="C99">
-        <v>-0.0007501996278293328</v>
+        <v>-0.002868422211783472</v>
       </c>
       <c r="D99">
-        <v>0.05452861408558025</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.05581949479806701</v>
+      </c>
+      <c r="E99">
+        <v>0.006157799794090777</v>
+      </c>
+      <c r="F99">
+        <v>0.005264859739199719</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1183353532604022</v>
+        <v>-0.1107661726976328</v>
       </c>
       <c r="C100">
-        <v>-0.03324488289011196</v>
+        <v>-0.04046204196685626</v>
       </c>
       <c r="D100">
-        <v>0.3095201962563375</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.2912048453463249</v>
+      </c>
+      <c r="E100">
+        <v>-0.5828696210288581</v>
+      </c>
+      <c r="F100">
+        <v>-0.6568442886136906</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02609724869815084</v>
+        <v>-0.02801829233021226</v>
       </c>
       <c r="C101">
-        <v>0.01012551683981993</v>
+        <v>0.009515841495709916</v>
       </c>
       <c r="D101">
-        <v>0.03904608955301869</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03888621593878674</v>
+      </c>
+      <c r="E101">
+        <v>-0.007865757292641305</v>
+      </c>
+      <c r="F101">
+        <v>0.02447273786424904</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
